--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8950_ExcludeTest.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8950_ExcludeTest.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\EPBDS-8950_ExcludeTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43A448E-005A-4C08-B68C-07BF8B40BA38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="25875" windowHeight="11820"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>Spreadsheet SpreadsheetResult mySpr(Integer a)</t>
   </si>
@@ -102,40 +108,46 @@
     <t>Value2~</t>
   </si>
   <si>
-    <t>_res_.$Step2["Step1"]</t>
-  </si>
-  <si>
     <t>=$Step1.toMap()</t>
   </si>
   <si>
     <t>_res_.$Step2["SomeStep"]</t>
   </si>
   <si>
-    <t>_res_.$Step2["Step2"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Step1"]:Integer</t>
-  </si>
-  <si>
     <t>_res_.$Step2["SomeStep"]:Integer</t>
   </si>
   <si>
-    <t>_res_.$Step2["Step2"]:Integer</t>
-  </si>
-  <si>
     <t>Spreadsheet SpreadsheetResult mySpr2d_test(Integer b)</t>
   </si>
   <si>
-    <t>_res_.$Step2["Step3"]:Integer</t>
-  </si>
-  <si>
     <t>Test mySpr2d_test</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step1"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step2"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step3"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step1"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step2"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["someStep"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["someStep"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -202,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -229,7 +241,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -238,14 +250,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,9 +298,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,9 +333,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,9 +385,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -528,29 +577,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="52.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="28.42578125" collapsed="false"/>
-    <col min="6" max="7" customWidth="true" width="20.5703125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.59765625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="52.265625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.3984375" collapsed="false"/>
+    <col min="6" max="7" customWidth="true" width="20.59765625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D6" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
@@ -561,7 +610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>1</v>
       </c>
@@ -570,7 +619,7 @@
       </c>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>3</v>
       </c>
@@ -579,7 +628,7 @@
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>10</v>
       </c>
@@ -588,7 +637,7 @@
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>4</v>
       </c>
@@ -597,18 +646,18 @@
       </c>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -619,7 +668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -630,7 +679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -641,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -652,7 +701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -663,13 +712,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -677,7 +726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -685,20 +734,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -706,16 +755,16 @@
         <v>16</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
@@ -723,16 +772,16 @@
         <v>16</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="3" t="s">
         <v>14</v>
       </c>
@@ -747,7 +796,7 @@
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
         <v>13</v>
       </c>
@@ -762,19 +811,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="F37" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B38" s="8" t="s">
         <v>1</v>
       </c>
@@ -792,7 +841,7 @@
       </c>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B39" s="8" t="s">
         <v>3</v>
       </c>
@@ -810,7 +859,7 @@
       </c>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B40" s="8" t="s">
         <v>19</v>
       </c>
@@ -824,11 +873,11 @@
         <v>4</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B41" s="8" t="s">
         <v>25</v>
       </c>
@@ -842,40 +891,40 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B44" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>1</v>
       </c>
@@ -886,15 +935,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>7.0</v>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -917,24 +966,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8950_ExcludeTest.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8950_ExcludeTest.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\EPBDS-8950_ExcludeTest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43A448E-005A-4C08-B68C-07BF8B40BA38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="25875" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>Spreadsheet SpreadsheetResult mySpr(Integer a)</t>
   </si>
@@ -108,46 +102,40 @@
     <t>Value2~</t>
   </si>
   <si>
+    <t>_res_.$Step2["Step1"]</t>
+  </si>
+  <si>
     <t>=$Step1.toMap()</t>
   </si>
   <si>
     <t>_res_.$Step2["SomeStep"]</t>
   </si>
   <si>
+    <t>_res_.$Step2["Step2"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Step1"]:Integer</t>
+  </si>
+  <si>
     <t>_res_.$Step2["SomeStep"]:Integer</t>
   </si>
   <si>
+    <t>_res_.$Step2["Step2"]:Integer</t>
+  </si>
+  <si>
     <t>Spreadsheet SpreadsheetResult mySpr2d_test(Integer b)</t>
   </si>
   <si>
+    <t>_res_.$Step2["Step3"]:Integer</t>
+  </si>
+  <si>
     <t>Test mySpr2d_test</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step1"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step2"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step3"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step1"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step2"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["someStep"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["someStep"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -214,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -241,7 +229,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -250,17 +238,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -298,9 +283,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,26 +318,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,26 +353,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -577,29 +528,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="18.59765625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="52.265625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="28.3984375" collapsed="false"/>
-    <col min="6" max="7" customWidth="true" width="20.59765625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="52.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.42578125" collapsed="false"/>
+    <col min="6" max="7" customWidth="true" width="20.5703125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D6" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
@@ -610,7 +561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>1</v>
       </c>
@@ -619,7 +570,7 @@
       </c>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>3</v>
       </c>
@@ -628,7 +579,7 @@
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>10</v>
       </c>
@@ -637,7 +588,7 @@
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>4</v>
       </c>
@@ -646,18 +597,18 @@
       </c>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -668,7 +619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -679,7 +630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -690,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -701,7 +652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -712,13 +663,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -726,7 +677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -734,20 +685,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -755,16 +706,16 @@
         <v>16</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
@@ -772,16 +723,16 @@
         <v>16</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>14</v>
       </c>
@@ -796,7 +747,7 @@
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>13</v>
       </c>
@@ -811,19 +762,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="F37" s="15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>1</v>
       </c>
@@ -841,7 +792,7 @@
       </c>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>3</v>
       </c>
@@ -859,7 +810,7 @@
       </c>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>19</v>
       </c>
@@ -873,11 +824,11 @@
         <v>4</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>25</v>
       </c>
@@ -891,40 +842,40 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>1</v>
       </c>
@@ -935,15 +886,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
-      <c r="E48">
-        <v>7</v>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -966,24 +917,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
